--- a/KA_Data/K&A private boat data.xlsx
+++ b/KA_Data/K&A private boat data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\Canals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12F9CC-5F4C-4628-96A3-09CB73F89766}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C01550-9903-4012-9856-F38DD6ACF99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F65DEB4D-0036-4532-A7B1-FB92F628257A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Total boats</t>
   </si>
@@ -91,6 +92,84 @@
   </si>
   <si>
     <t>(all other data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6% continuously cruising  </t>
+  </si>
+  <si>
+    <t>https://canalrivertrust.org.uk/media/original/32336-canal-and-river-trust-2017-national-boat-count-shows-licence-evasion-down.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to Wiltshire survey </t>
+  </si>
+  <si>
+    <t>have a canal boat home</t>
+  </si>
+  <si>
+    <t>According to Canal and River Trust survey</t>
+  </si>
+  <si>
+    <t>are continuous cruisers</t>
+  </si>
+  <si>
+    <t>Therefore</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Continuous cruiser</t>
+  </si>
+  <si>
+    <t>Using percentages from Canal and River Trust survey</t>
+  </si>
+  <si>
+    <t>(use only for work - stationary)</t>
+  </si>
+  <si>
+    <t>(assume that if used for leisure then similar to hire)</t>
+  </si>
+  <si>
+    <t>(second home - similar to hire or holiday home but only in summer?)</t>
+  </si>
+  <si>
+    <t>(other so ignore)</t>
+  </si>
+  <si>
+    <t>(permanent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All continuous cruisers are assumed to be in this category </t>
+  </si>
+  <si>
+    <t>Permanent continuous</t>
+  </si>
+  <si>
+    <t>Permanent stationary</t>
+  </si>
+  <si>
+    <t>What will their behaviour be?</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>continuously crusing</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>similar behaviour to hire boats</t>
+  </si>
+  <si>
+    <t>Permanent home - not sure what their behaviour will be</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>Rounding error corrected equally between</t>
   </si>
 </sst>
 </file>
@@ -443,11 +522,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF1DB9-8E92-40B6-8916-4418A4FF4234}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FC8EC-E45A-4F75-B471-65469EFEB5A6}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M23" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.06</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>595</v>
+      </c>
+      <c r="B8">
+        <v>559</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>0.372</f>
+        <v>0.372</v>
+      </c>
+      <c r="C12">
+        <f>B12*$A$8</f>
+        <v>221.34</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(C12, 0)</f>
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>0.012</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C15" si="0">B13*$A$8</f>
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="1">ROUND(C13, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>0.2+0.082</f>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>167.79000000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>0.322</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="C16">
+        <f>B16*$A$8</f>
+        <v>191.59</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(C16, 0)</f>
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <f>C8</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <f>D16-H18</f>
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>D12+D14</f>
+        <v>389</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>D13</f>
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>H19</f>
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>D15</f>
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B25" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF1DB9-8E92-40B6-8916-4418A4FF4234}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +774,7 @@
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +782,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -473,7 +790,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -481,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>C8/B5</f>
         <v>8.6206896551724144E-2</v>
@@ -494,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -511,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -539,7 +856,7 @@
         <v>982.17306441119069</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -567,7 +884,7 @@
         <v>521.63009404388708</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -595,7 +912,7 @@
         <v>459.77011494252878</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -622,7 +939,7 @@
         <v>220.68965517241381</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -648,8 +965,11 @@
         <f t="shared" si="1"/>
         <v>27.586206896551726</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -676,7 +996,7 @@
         <v>27.586206896551726</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -695,6 +1015,11 @@
       </c>
       <c r="F19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
